--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail7 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail7 Features.xlsx
@@ -4434,7 +4434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,29 +4445,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4488,115 +4486,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4613,72 +4601,66 @@
         <v>1.977290669818983e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.093045895202581</v>
+        <v>1.213466859775435e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>6.131830938545413</v>
+        <v>4.20571985993039e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.213466859775435e-06</v>
+        <v>0.08597375789940598</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.20571985993039e-06</v>
+        <v>0.2763327238619508</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08597375789940598</v>
+        <v>0.08363130378831027</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2763327238619508</v>
+        <v>1.565722399498768</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08363130378831027</v>
+        <v>1.171885399452926</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.579013204424621</v>
+        <v>22.95995793897099</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.171885399452926</v>
+        <v>3.751922559537191e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>22.95995793897099</v>
+        <v>227492798.1582463</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.751922559537191e-14</v>
+        <v>4.680027368324523e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>227492798.1582463</v>
+        <v>1941.731477242375</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.680027368324523e-07</v>
+        <v>0.000140011278735845</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1941.731477242375</v>
+        <v>10.59240669047102</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.000140011278735845</v>
+        <v>1.131476575935594</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.59240669047102</v>
+        <v>0.01570913659326662</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.131476575935594</v>
+        <v>3.06567008307322</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01570913659326662</v>
+        <v>0.9370427901292375</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.06567008307322</v>
+        <v>0.8756857179431398</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9370427901292375</v>
+        <v>7</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8756857179431398</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3540762160615276</v>
       </c>
     </row>
@@ -4693,72 +4675,66 @@
         <v>1.625488814381078e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-1.503249929350692</v>
+        <v>9.712294054497897e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>3.772543454405122</v>
+        <v>4.220374782616179e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.712294054497897e-07</v>
+        <v>0.0767184127922669</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.220374782616179e-06</v>
+        <v>0.2852223378076152</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0767184127922669</v>
+        <v>0.08712123901881698</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2852223378076152</v>
+        <v>1.555985846656324</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.08712123901881698</v>
+        <v>1.17584478154714</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.56761507197721</v>
+        <v>22.90660560384228</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.17584478154714</v>
+        <v>3.769420302163899e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>22.90660560384228</v>
+        <v>226446510.9940508</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.769420302163899e-14</v>
+        <v>4.701545629347996e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>226446510.9940508</v>
+        <v>1932.884184684071</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.701545629347996e-07</v>
+        <v>0.000110899071580176</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1932.884184684071</v>
+        <v>11.47223347031636</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.000110899071580176</v>
+        <v>1.10507455035137</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.47223347031636</v>
+        <v>0.01459566422311627</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.10507455035137</v>
+        <v>4.227422610545873</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01459566422311627</v>
+        <v>0.9371044676764659</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>4.227422610545873</v>
+        <v>0.880496974641054</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9371044676764659</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.880496974641054</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.966733278320444</v>
       </c>
     </row>
@@ -4773,72 +4749,66 @@
         <v>1.379795797396247e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.8343601954621935</v>
+        <v>7.740188866940891e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.218169514057419</v>
+        <v>4.230925355521917e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.740188866940891e-07</v>
+        <v>0.06363968847228398</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.230925355521917e-06</v>
+        <v>0.2887408171019552</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06363968847228398</v>
+        <v>0.08730623333503384</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2887408171019552</v>
+        <v>1.55920707601746</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08730623333503384</v>
+        <v>1.182125749723794</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.56971859768174</v>
+        <v>22.64851172052852</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.182125749723794</v>
+        <v>3.855819579330528e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>22.64851172052852</v>
+        <v>221375935.3230677</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.855819579330528e-14</v>
+        <v>4.809300699324849e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>221375935.3230677</v>
+        <v>1889.633251473385</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.809300699324849e-07</v>
+        <v>7.350484208947693e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1889.633251473385</v>
+        <v>10.60745822656384</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.350484208947693e-05</v>
+        <v>1.303398815409911</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.60745822656384</v>
+        <v>0.008270630320126876</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.303398815409911</v>
+        <v>6.056060861771935</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008270630320126876</v>
+        <v>0.9374736858487988</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.056060861771935</v>
+        <v>0.8966293855119767</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9374736858487988</v>
+        <v>7</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.8966293855119767</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>4.676082801632355</v>
       </c>
     </row>
@@ -4853,72 +4823,66 @@
         <v>1.22823202236079e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3052561353469965</v>
+        <v>5.982479706830666e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5227423859794769</v>
+        <v>4.23809300292204e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.982479706830666e-07</v>
+        <v>0.04579275141007548</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.23809300292204e-06</v>
+        <v>0.2725024412686976</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04579275141007548</v>
+        <v>0.07623470818787091</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2725024412686976</v>
+        <v>1.558278880526237</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07623470818787091</v>
+        <v>1.180244253044982</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.568124345526821</v>
+        <v>22.70213356278153</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.180244253044982</v>
+        <v>3.837626401814843e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>22.70213356278153</v>
+        <v>222439207.5628943</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.837626401814843e-14</v>
+        <v>4.786330407634721e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>222439207.5628943</v>
+        <v>1898.826883331982</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.786330407634721e-07</v>
+        <v>5.165698433599927e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1898.826883331982</v>
+        <v>9.626388685111136</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>5.165698433599927e-05</v>
+        <v>1.535758630683257</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.626388685111136</v>
+        <v>0.004786916318356801</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.535758630683257</v>
+        <v>7.034522542215625</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.004786916318356801</v>
+        <v>0.9379881525506413</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.034522542215625</v>
+        <v>0.878000657626171</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9379881525506413</v>
+        <v>7</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.878000657626171</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.408672595059818</v>
       </c>
     </row>
@@ -4933,72 +4897,66 @@
         <v>1.154167829419339e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0785787419064609</v>
+        <v>4.576733732479441e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.024048902230442</v>
+        <v>4.242363890077529e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.576733732479441e-07</v>
+        <v>0.02710205190347701</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.242363890077529e-06</v>
+        <v>0.2462894212454793</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02710205190347701</v>
+        <v>0.06133216061848533</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2462894212454793</v>
+        <v>1.555356885963451</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.06133216061848533</v>
+        <v>1.180657027141921</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.562795086186382</v>
+        <v>22.5142634535116</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.180657027141921</v>
+        <v>3.901939709643457e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>22.5142634535116</v>
+        <v>218786056.2031977</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.901939709643457e-14</v>
+        <v>4.86624380729745e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>218786056.2031977</v>
+        <v>1867.7546845478</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.86624380729745e-07</v>
+        <v>4.680851815177635e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1867.7546845478</v>
+        <v>9.257673496873295</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.680851815177635e-05</v>
+        <v>1.434584438041526</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.257673496873295</v>
+        <v>0.004011701513393576</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.434584438041526</v>
+        <v>6.983874283617061</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.004011701513393576</v>
+        <v>0.9353888682272257</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.983874283617061</v>
+        <v>0.893384241890417</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9353888682272257</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.893384241890417</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>6.272578234924042</v>
       </c>
     </row>
@@ -5013,72 +4971,66 @@
         <v>1.122330082864605e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02319033275070071</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.054871509251967</v>
+        <v>4.244731430668832e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.0164050653283489</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.244731430668832e-06</v>
+        <v>0.2339890361948986</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.0164050653283489</v>
+        <v>0.05500152231881335</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2339890361948986</v>
+        <v>1.556532978261586</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.05500152231881335</v>
+        <v>1.182363979526794</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.562222491936191</v>
+        <v>21.71492046468339</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.182363979526794</v>
+        <v>4.194493793450691e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>21.71492046468339</v>
+        <v>203542260.0133855</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.194493793450691e-14</v>
+        <v>5.230777645185244e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>203542260.0133855</v>
+        <v>1737.755776499011</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.230777645185244e-07</v>
+        <v>5.423165047410188e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1737.755776499011</v>
+        <v>10.34135930691936</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>5.423165047410188e-05</v>
+        <v>1.146313935970472</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.34135930691936</v>
+        <v>0.005799734026659558</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.146313935970472</v>
+        <v>6.381950699642808</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.005799734026659558</v>
+        <v>0.9354501028689932</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>6.381950699642808</v>
+        <v>0.9281136572987261</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9354501028689932</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9281136572987261</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>5.294674035949036</v>
       </c>
     </row>
@@ -5093,72 +5045,66 @@
         <v>1.10465890640815e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.01891336428179869</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.00953976549219</v>
+        <v>4.246466925459818e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.01646915115568979</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.246466925459818e-06</v>
+        <v>0.2372713458929462</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01646915115568979</v>
+        <v>0.05655721213395723</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2372713458929462</v>
+        <v>1.557216366831412</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05655721213395723</v>
+        <v>1.212199308390938</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.60691337937738</v>
+        <v>23.96996299878545</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.212199308390938</v>
+        <v>4.599576860568436e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>23.96996299878545</v>
+        <v>192561246.6008188</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.599576860568436e-14</v>
+        <v>5.527936187544709e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>192561246.6008188</v>
+        <v>1705.515450455712</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5.527936187544709e-07</v>
+        <v>6.810198319386416e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1705.515450455712</v>
+        <v>11.35613332011149</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>6.810198319386416e-05</v>
+        <v>1.090632645284602</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.35613332011149</v>
+        <v>0.008782551883499422</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.090632645284602</v>
+        <v>5.723528339539346</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008782551883499422</v>
+        <v>0.9332644680923876</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.723528339539346</v>
+        <v>0.8735532624854366</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9332644680923876</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.8735532624854366</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.242615334953488</v>
       </c>
     </row>
@@ -5173,72 +5119,66 @@
         <v>1.088825509386733e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.03605788419576438</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9442219670456362</v>
+        <v>4.248499471826911e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.02057747698209732</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.248499471826911e-06</v>
+        <v>0.2440495975770163</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02057747698209732</v>
+        <v>0.05997701799874009</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2440495975770163</v>
+        <v>1.548733354091161</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05997701799874009</v>
+        <v>1.211343775486266</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.550920280612433</v>
+        <v>23.74374040504859</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.211343775486266</v>
+        <v>4.687640922581816e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>23.74374040504859</v>
+        <v>188945658.8817171</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>4.687640922581816e-14</v>
+        <v>5.633674948244821e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>188945658.8817171</v>
+        <v>1673.509466743076</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>5.633674948244821e-07</v>
+        <v>6.495055269965732e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1673.509466743076</v>
+        <v>11.18736958612716</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>6.495055269965732e-05</v>
+        <v>1.231041137980054</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.18736958612716</v>
+        <v>0.00812903179912906</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.231041137980054</v>
+        <v>6.129630530844999</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00812903179912906</v>
+        <v>0.9308077540202379</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.129630530844999</v>
+        <v>0.9621654313119083</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9308077540202379</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9621654313119083</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.699261404361731</v>
       </c>
     </row>
@@ -5253,72 +5193,66 @@
         <v>1.074553761641661e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.07087193803456943</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.87165005659726</v>
+        <v>4.250888566355347e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.02331921884671898</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.250888566355347e-06</v>
+        <v>0.2492561436085086</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02331921884671898</v>
+        <v>0.06266448854265924</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2492561436085086</v>
+        <v>1.54509748371993</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.06266448854265924</v>
+        <v>1.210383824008595</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.546236221724548</v>
+        <v>23.96714908670042</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.210383824008595</v>
+        <v>4.600656969400351e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>23.96714908670042</v>
+        <v>192519300.5343766</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>4.600656969400351e-14</v>
+        <v>5.529058278527775e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>192519300.5343766</v>
+        <v>1705.172826642626</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>5.529058278527775e-07</v>
+        <v>4.958939075116289e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1705.172826642626</v>
+        <v>9.919739775120242</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>4.958939075116289e-05</v>
+        <v>1.572511831428402</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.919739775120242</v>
+        <v>0.004879657402211288</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.572511831428402</v>
+        <v>7.035895190655799</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.004879657402211288</v>
+        <v>0.9307202114130002</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>7.035895190655799</v>
+        <v>0.9489484129748419</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9307202114130002</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9489484129748419</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>6.236810613981193</v>
       </c>
     </row>
@@ -5333,72 +5267,66 @@
         <v>1.064386399404618e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1211319789602788</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.8061469200165763</v>
+        <v>4.253425720061173e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.02371255061290021</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.253425720061173e-06</v>
+        <v>0.2518590939991156</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02371255061290021</v>
+        <v>0.06399212965682213</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2518590939991156</v>
+        <v>1.533971295849347</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.06399212965682213</v>
+        <v>1.208301594834826</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.53292253617947</v>
+        <v>23.82221895964543</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.208301594834826</v>
+        <v>4.656806404230103e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>23.82221895964543</v>
+        <v>190200046.9207016</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>4.656806404230103e-14</v>
+        <v>5.596395660857355e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>190200046.9207016</v>
+        <v>1684.648978693319</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>5.596395660857355e-07</v>
+        <v>3.402332558315494e-05</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1684.648978693319</v>
+        <v>8.580042951833891</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>3.402332558315494e-05</v>
+        <v>1.660809448093244</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.580042951833891</v>
+        <v>0.002504699822532703</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.660809448093244</v>
+        <v>7.418734642579981</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.002504699822532703</v>
+        <v>0.921053528477406</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.418734642579981</v>
+        <v>0.9266607521991791</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.921053528477406</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9266607521991791</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>6.833373483845946</v>
       </c>
     </row>
@@ -5413,72 +5341,66 @@
         <v>1.057964267278672e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1754147165801336</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7520323895512973</v>
+        <v>4.255776343887662e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.01954581469641149</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.255776343887662e-06</v>
+        <v>0.2520704867781753</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.01954581469641149</v>
+        <v>0.06391346362528101</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2520704867781753</v>
+        <v>1.530457821755543</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.06391346362528101</v>
+        <v>1.206184492652543</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.530202283725397</v>
+        <v>23.99040956247576</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.206184492652543</v>
+        <v>4.591739940203889e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>23.99040956247576</v>
+        <v>192893034.9021586</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>4.591739940203889e-14</v>
+        <v>5.518204880230019e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>192893034.9021586</v>
+        <v>1708.481873871759</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.518204880230019e-07</v>
+        <v>3.712537629618209e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1708.481873871759</v>
+        <v>9.04193647839455</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>3.712537629618209e-05</v>
+        <v>1.308695890380585</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.04193647839455</v>
+        <v>0.003035245106947021</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.308695890380585</v>
+        <v>7.01169361059673</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.003035245106947021</v>
+        <v>0.9186767844517923</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>7.01169361059673</v>
+        <v>0.9487635334526037</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9186767844517923</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9487635334526037</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>5.92864854782089</v>
       </c>
     </row>
@@ -5493,72 +5415,66 @@
         <v>1.054534145305938e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.2155022977172994</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.714720983003323</v>
+        <v>4.257306780454467e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.009222895633905442</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.257306780454467e-06</v>
+        <v>0.2525621257601381</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.009222895633905442</v>
+        <v>0.06386112100009943</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2525621257601381</v>
+        <v>1.572835743493731</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.06386112100009943</v>
+        <v>1.314863349132944</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.597774415740119</v>
+        <v>21.11439466839696</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.314863349132944</v>
+        <v>5.927824502535739e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>21.11439466839696</v>
+        <v>207385318.1042714</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>5.927824502535739e-14</v>
+        <v>5.132259127422006e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>207385318.1042714</v>
+        <v>2549.478488268088</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>5.132259127422006e-07</v>
+        <v>5.116631654568643e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2549.478488268088</v>
+        <v>11.12633521299785</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.116631654568643e-05</v>
+        <v>1.124967740523455</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.12633521299785</v>
+        <v>0.006334151311406322</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.124967740523455</v>
+        <v>6.192202349048843</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.006334151311406322</v>
+        <v>0.9316266350947879</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>6.192202349048843</v>
+        <v>0.9147192516157825</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9316266350947879</v>
+        <v>5</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9147192516157825</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>4.344127996634955</v>
       </c>
     </row>
@@ -5573,72 +5489,66 @@
         <v>1.053424748474582e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.2292732117663413</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7013004533384573</v>
+        <v>4.257796658620384e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>0.0005079506337512468</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.257796658620384e-06</v>
+        <v>0.2521382689132155</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0005079506337512468</v>
+        <v>0.06356680821574566</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2521382689132155</v>
+        <v>1.573236872971986</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.06356680821574566</v>
+        <v>1.318536659180838</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.596887362998439</v>
+        <v>20.85315330776403</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.318536659180838</v>
+        <v>6.077278452637935e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>20.85315330776403</v>
+        <v>202288516.3361979</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>6.077278452637935e-14</v>
+        <v>5.261592825113102e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>202288516.3361979</v>
+        <v>2486.861470860205</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.261592825113102e-07</v>
+        <v>7.68960435527398e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2486.861470860205</v>
+        <v>12.55758410466666</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>7.68960435527398e-05</v>
+        <v>1.1372229251029</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>12.55758410466666</v>
+        <v>0.0121259615324547</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.1372229251029</v>
+        <v>5.290142119280333</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0121259615324547</v>
+        <v>0.9332253824440575</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.290142119280333</v>
+        <v>0.9374361600085576</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9332253824440575</v>
+        <v>5</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9374361600085576</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>2.813766855161308</v>
       </c>
     </row>
@@ -5653,72 +5563,66 @@
         <v>1.053734458969936e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.2214400657963617</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7063069968092925</v>
+        <v>4.257521654566204e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>-0.005450577727196451</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.257521654566204e-06</v>
+        <v>0.2487935407040319</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.005450577727196451</v>
+        <v>0.06192112388651144</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2487935407040319</v>
+        <v>1.57126768140468</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.06192112388651144</v>
+        <v>1.340340466460755</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.592351761514496</v>
+        <v>20.41372409922359</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.340340466460755</v>
+        <v>6.435127866743646e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>20.41372409922359</v>
+        <v>194487420.8237978</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>6.435127866743646e-14</v>
+        <v>5.471938864408744e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>194487420.8237978</v>
+        <v>2434.110079908985</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.471938864408744e-07</v>
+        <v>7.700936464502778e-05</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2434.110079908985</v>
+        <v>10.24442669887539</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>7.700936464502778e-05</v>
+        <v>1.488159353388188</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.24442669887539</v>
+        <v>0.008082000239297968</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.488159353388188</v>
+        <v>5.645734902012761</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.008082000239297968</v>
+        <v>0.9337111478514956</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>5.645734902012761</v>
+        <v>0.9375104858843478</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9337111478514956</v>
+        <v>8</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9375104858843478</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>3.480047448619688</v>
       </c>
     </row>
@@ -5733,72 +5637,66 @@
         <v>1.053618482021561e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.1966257343172967</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.7124873114867256</v>
+        <v>4.256622689147016e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>-0.0116258916707796</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.256622689147016e-06</v>
+        <v>0.2454319406098441</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0116258916707796</v>
+        <v>0.06036540275379042</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2454319406098441</v>
+        <v>1.565279510207164</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.06036540275379042</v>
+        <v>1.246911339922744</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.564990294516931</v>
+        <v>24.18032841182965</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.246911339922744</v>
+        <v>4.520555477314721e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>24.18032841182965</v>
+        <v>202585974.1890207</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.520555477314721e-14</v>
+        <v>5.250973887815314e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>202585974.1890207</v>
+        <v>1855.284651474886</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.250973887815314e-07</v>
+        <v>4.690722767146762e-05</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1855.284651474886</v>
+        <v>7.392238589213419</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>4.690722767146762e-05</v>
+        <v>1.678092778939159</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>7.392238589213419</v>
+        <v>0.00256325443226768</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.678092778939159</v>
+        <v>6.533484127003507</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.00256325443226768</v>
+        <v>0.9375354204587226</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>6.533484127003507</v>
+        <v>0.9945031257104465</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9375354204587226</v>
+        <v>15</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9945031257104465</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>5.005126640993103</v>
       </c>
     </row>
@@ -5813,72 +5711,66 @@
         <v>1.051262950774353e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1573010240198223</v>
+        <v>3.907991762534959e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7047694791235379</v>
+        <v>4.255052075675588e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.907991762534959e-07</v>
+        <v>-0.01828118437689993</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.255052075675588e-06</v>
+        <v>0.2417568866970242</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.01828118437689993</v>
+        <v>0.05877166520968218</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2417568866970242</v>
+        <v>1.572243151112877</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05877166520968218</v>
+        <v>1.254460213573986</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.572032361009216</v>
+        <v>24.51969901046085</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.254460213573986</v>
+        <v>4.396285861933407e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>24.51969901046085</v>
+        <v>208299812.7651278</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.396285861933407e-14</v>
+        <v>5.107099691681864e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>208299812.7651278</v>
+        <v>1907.496207528381</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.107099691681864e-07</v>
+        <v>3.612437946033526e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1907.496207528381</v>
+        <v>7.132218716356843</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>3.612437946033526e-05</v>
+        <v>1.296551188657459</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.132218716356843</v>
+        <v>0.001837594579474348</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.296551188657459</v>
+        <v>6.824091309388124</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.001837594579474348</v>
+        <v>0.9379666155508293</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>6.824091309388124</v>
+        <v>1.027827662305761</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9379666155508293</v>
+        <v>15</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.027827662305761</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>5.561786798927266</v>
       </c>
     </row>
@@ -6255,7 +6147,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.341863001210339</v>
+        <v>1.320762909622057</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.344705754534673</v>
@@ -6344,7 +6236,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.34038476978847</v>
+        <v>1.32056690656065</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.351599162327855</v>
@@ -6433,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.362842504019881</v>
+        <v>1.345804041576809</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.72158367074001</v>
@@ -6522,7 +6414,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.366745375907217</v>
+        <v>1.349650983134993</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.543216757204481</v>
@@ -6611,7 +6503,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.390975927115379</v>
+        <v>1.37011775244942</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.692794562296996</v>
@@ -6700,7 +6592,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.408415744717116</v>
+        <v>1.389880325158023</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.423417090352342</v>
@@ -6789,7 +6681,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.424719790687405</v>
+        <v>1.406780048855147</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.241538914506521</v>
@@ -6878,7 +6770,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.42133452972337</v>
+        <v>1.400117086645505</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.699508399694186</v>
@@ -6967,7 +6859,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.410037058008915</v>
+        <v>1.391710910398184</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.642414502912843</v>
@@ -7056,7 +6948,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.408847676692573</v>
+        <v>1.39081592438966</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.727085829225453</v>
@@ -7145,7 +7037,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.416147391376574</v>
+        <v>1.397662840251382</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.445248390152331</v>
@@ -7234,7 +7126,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402580182714869</v>
+        <v>1.385720083852772</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.38864337364959</v>
@@ -7323,7 +7215,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.415701625925904</v>
+        <v>1.397093296740201</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.459260170984544</v>
@@ -7412,7 +7304,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.4182879646443</v>
+        <v>1.398975405440642</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.546090067102862</v>
@@ -7501,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.431985054099248</v>
+        <v>1.413500316427947</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.746558012894903</v>
@@ -7590,7 +7482,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.441445784133724</v>
+        <v>1.424420981568417</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.456503470163933</v>
@@ -7679,7 +7571,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.449103556381656</v>
+        <v>1.429329030899129</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.361771905888602</v>
@@ -7768,7 +7660,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.451652284238553</v>
+        <v>1.434065698105113</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.546163391621368</v>
@@ -7857,7 +7749,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.470417058031508</v>
+        <v>1.455153043711344</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.517278745320704</v>
@@ -7946,7 +7838,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.484936780141817</v>
+        <v>1.467981032500199</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.448010062344747</v>
@@ -8035,7 +7927,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.502745304510763</v>
+        <v>1.476586269984363</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.68326278199044</v>
@@ -8124,7 +8016,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.505420061873353</v>
+        <v>1.477873897577458</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.58947986550243</v>
@@ -8213,7 +8105,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.504791542391569</v>
+        <v>1.483062101730486</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.610363303651953</v>
@@ -8302,7 +8194,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.461333340342057</v>
+        <v>1.436237227429093</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.129102238636337</v>
@@ -8391,7 +8283,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.416529326458786</v>
+        <v>1.406131827512019</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.129148687351602</v>
@@ -8480,7 +8372,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.391964074565101</v>
+        <v>1.381080217607053</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.175220406258277</v>
@@ -8569,7 +8461,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.40628676758207</v>
+        <v>1.392847246715125</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.067142390121648</v>
@@ -8658,7 +8550,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.414028275367659</v>
+        <v>1.39723372205147</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.102676168625298</v>
@@ -8747,7 +8639,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.392528029612689</v>
+        <v>1.377451237823741</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.185647974921296</v>
@@ -8836,7 +8728,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.37014418336427</v>
+        <v>1.350211439638826</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.106664848893238</v>
@@ -8925,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.372071708643076</v>
+        <v>1.351186756391824</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.118519507505571</v>
@@ -9014,7 +8906,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.374052621766418</v>
+        <v>1.354118680823455</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.157117777898752</v>
@@ -9103,7 +8995,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.365348353288114</v>
+        <v>1.347162155111572</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.125382742847708</v>
@@ -9192,7 +9084,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.350448654144025</v>
+        <v>1.33083937752613</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.19686592755483</v>
@@ -9281,7 +9173,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.342804809442755</v>
+        <v>1.321851062699855</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.151278838051268</v>
@@ -9370,7 +9262,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.331537383583658</v>
+        <v>1.317962934224589</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.184651318565875</v>
@@ -9459,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.323029859797414</v>
+        <v>1.30998176081648</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.185819964666055</v>
@@ -9548,7 +9440,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.308831350656372</v>
+        <v>1.297661055560355</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.109020935383481</v>
@@ -9637,7 +9529,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.344258884466345</v>
+        <v>1.32637416852917</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.487431842819822</v>
@@ -9726,7 +9618,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.372171373161668</v>
+        <v>1.352362894217051</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.522756098058911</v>
@@ -9815,7 +9707,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.383613361248851</v>
+        <v>1.357628183532663</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.351389327506561</v>
@@ -9904,7 +9796,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.384769927437073</v>
+        <v>1.363079279464484</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.535596578290439</v>
@@ -9993,7 +9885,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.39353189255044</v>
+        <v>1.371095641399729</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.240089940295564</v>
@@ -10082,7 +9974,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.398103770858727</v>
+        <v>1.371854835806737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.422768253414466</v>
@@ -10171,7 +10063,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.412013490362103</v>
+        <v>1.392915715872584</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.697098691702683</v>
@@ -10260,7 +10152,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.422972573552738</v>
+        <v>1.403802868459567</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.513813212593698</v>
@@ -10349,7 +10241,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.434637699084371</v>
+        <v>1.409781694560531</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.325955237042669</v>
@@ -10438,7 +10330,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.425606929025109</v>
+        <v>1.401129046158976</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.539806285777054</v>
@@ -10527,7 +10419,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.323743283860048</v>
+        <v>1.307716762843491</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.744792872431815</v>
@@ -10616,7 +10508,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.28992477254374</v>
+        <v>1.284852450924177</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.756054032425992</v>
@@ -10705,7 +10597,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.282859421175173</v>
+        <v>1.277333949366903</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.761294973582859</v>
@@ -10794,7 +10686,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.29813672180504</v>
+        <v>1.290940146900295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.728080589434372</v>
@@ -10883,7 +10775,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.312850134752772</v>
+        <v>1.307688664492323</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.798707311825567</v>
@@ -10972,7 +10864,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.310110852285717</v>
+        <v>1.306550602020212</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.763129348007182</v>
@@ -11061,7 +10953,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.306598899446762</v>
+        <v>1.301434761434335</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.794340843627287</v>
@@ -11150,7 +11042,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.294642086171039</v>
+        <v>1.295245880965283</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.775422252782757</v>
@@ -11239,7 +11131,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.287108635519998</v>
+        <v>1.28745142212968</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.767696475753564</v>
@@ -11328,7 +11220,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.29030908663241</v>
+        <v>1.287229781298958</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.769044662975502</v>
@@ -11417,7 +11309,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.308986989456359</v>
+        <v>1.305462064029906</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.769719232506613</v>
@@ -11506,7 +11398,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.30176604724405</v>
+        <v>1.291985424446147</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.793089069360569</v>
@@ -11595,7 +11487,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.300212136225165</v>
+        <v>1.290844992798105</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.778834167000951</v>
@@ -11881,7 +11773,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.47216057995859</v>
+        <v>1.462515799248773</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.313084898982218</v>
@@ -11970,7 +11862,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.469490706194308</v>
+        <v>1.461856683964381</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.257007868824811</v>
@@ -12059,7 +11951,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.473526112472687</v>
+        <v>1.460500534883362</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.255502648131952</v>
@@ -12148,7 +12040,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.459180726199326</v>
+        <v>1.442404402421005</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.236518100750292</v>
@@ -12237,7 +12129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.46695486094802</v>
+        <v>1.446116106705224</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.093701828000053</v>
@@ -12326,7 +12218,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.494620219637441</v>
+        <v>1.480390602598013</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.230266111812927</v>
@@ -12415,7 +12307,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.499827844659496</v>
+        <v>1.482583365351531</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.17007502639843</v>
@@ -12504,7 +12396,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.567333250982881</v>
+        <v>1.529783581769589</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.386357722730386</v>
@@ -12593,7 +12485,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.551536021341786</v>
+        <v>1.512543359740776</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.899551363964884</v>
@@ -12682,7 +12574,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.519429329561934</v>
+        <v>1.481547311146086</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.865864824918753</v>
@@ -12771,7 +12663,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.52184214783991</v>
+        <v>1.483931066362782</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.764853654466624</v>
@@ -12860,7 +12752,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515507068408624</v>
+        <v>1.471923913935783</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.597092760323225</v>
@@ -12949,7 +12841,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.518331197117569</v>
+        <v>1.473765685971608</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.747060219896707</v>
@@ -13038,7 +12930,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.502141919567442</v>
+        <v>1.460125861728298</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.786586516364951</v>
@@ -13127,7 +13019,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.493520678335885</v>
+        <v>1.450435263633403</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.546603310970459</v>
@@ -13216,7 +13108,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.492942320055109</v>
+        <v>1.450588588748884</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.757321583615412</v>
@@ -13305,7 +13197,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.511731180759229</v>
+        <v>1.450389432039854</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.732158422033304</v>
@@ -13394,7 +13286,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.499910805266247</v>
+        <v>1.443048908713774</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.626976120437889</v>
@@ -13483,7 +13375,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.501147160621962</v>
+        <v>1.446595300824375</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.798308697427534</v>
@@ -13572,7 +13464,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.502444266128139</v>
+        <v>1.451039039751825</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.698744516165023</v>
@@ -13661,7 +13553,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.492984984684113</v>
+        <v>1.442244326576782</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.520386997740151</v>
@@ -13750,7 +13642,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.492106507220575</v>
+        <v>1.446960181956629</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.580536728172739</v>
@@ -13839,7 +13731,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.461401437463137</v>
+        <v>1.427412022844374</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.655457628399803</v>
@@ -13928,7 +13820,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.474266579025015</v>
+        <v>1.436980884787269</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.419475606572717</v>
@@ -14017,7 +13909,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.468208638714076</v>
+        <v>1.43978665654276</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.424385854035765</v>
@@ -14106,7 +13998,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.458422999114159</v>
+        <v>1.43306617497574</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.617571728175714</v>
@@ -14195,7 +14087,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.448077760324739</v>
+        <v>1.428518925002411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.621218945377805</v>
@@ -14284,7 +14176,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.456788475292698</v>
+        <v>1.435242916342903</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.432215692455347</v>
@@ -14373,7 +14265,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.46019071166268</v>
+        <v>1.442051732187495</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.594118488532301</v>
@@ -14462,7 +14354,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.466151187827755</v>
+        <v>1.44523265728205</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.481774248446592</v>
@@ -14551,7 +14443,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.453578181848798</v>
+        <v>1.434081827061324</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.473124415650443</v>
@@ -14640,7 +14532,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.410114315628938</v>
+        <v>1.419423706522603</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.746446367388303</v>
@@ -14729,7 +14621,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.401955601678861</v>
+        <v>1.409095275545843</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.742505771777622</v>
@@ -14818,7 +14710,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.391405114332745</v>
+        <v>1.399756524810534</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.871330023875932</v>
@@ -14907,7 +14799,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.379374437702457</v>
+        <v>1.383010515760549</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.622077281460277</v>
@@ -14996,7 +14888,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.378269859525159</v>
+        <v>1.38529417408958</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.69376100998734</v>
@@ -15085,7 +14977,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.36620636356002</v>
+        <v>1.374088147238776</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.834950883260428</v>
@@ -15174,7 +15066,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.373071586378755</v>
+        <v>1.379532180523889</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.864986577727755</v>
@@ -15263,7 +15155,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.379558565528664</v>
+        <v>1.387934014506474</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.937380336956875</v>
@@ -15352,7 +15244,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.402398662542536</v>
+        <v>1.41078198945388</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.77406359733588</v>
@@ -15441,7 +15333,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.415175875391912</v>
+        <v>1.416705276990653</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.590246219904388</v>
@@ -15530,7 +15422,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.422684271355982</v>
+        <v>1.423303124900328</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.737165911330689</v>
@@ -15619,7 +15511,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.422135948857303</v>
+        <v>1.422237992162038</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.672737342714682</v>
@@ -15708,7 +15600,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.432406461540813</v>
+        <v>1.431988657728047</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.749090723186138</v>
@@ -15797,7 +15689,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.435921824967039</v>
+        <v>1.435431724294796</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.668435178754037</v>
@@ -15886,7 +15778,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.449094125696446</v>
+        <v>1.447304668383379</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.8035007979137</v>
@@ -15975,7 +15867,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.481274039329912</v>
+        <v>1.468995228689094</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.883778328211832</v>
@@ -16064,7 +15956,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501160583594154</v>
+        <v>1.48576290563494</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.995324622975782</v>
@@ -16153,7 +16045,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.463622005565141</v>
+        <v>1.450028506129071</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.326550880568359</v>
@@ -16242,7 +16134,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.454539282089571</v>
+        <v>1.450131387195403</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.339864885562227</v>
@@ -16331,7 +16223,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.46755294817015</v>
+        <v>1.451774687737746</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.23645028110057</v>
@@ -16420,7 +16312,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.481063538137146</v>
+        <v>1.470477590220225</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.289384134373434</v>
@@ -16509,7 +16401,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.508307678026843</v>
+        <v>1.500185557498539</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.198179603776438</v>
@@ -16598,7 +16490,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.526947143027504</v>
+        <v>1.520203140026682</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.255846096258546</v>
@@ -16687,7 +16579,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.523413004785706</v>
+        <v>1.515722287021192</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.355100448020863</v>
@@ -16776,7 +16668,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.518022743891041</v>
+        <v>1.516687640231175</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.353335960858796</v>
@@ -16865,7 +16757,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.51199844642933</v>
+        <v>1.515706452220904</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.413776189542121</v>
@@ -16954,7 +16846,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.504703821793403</v>
+        <v>1.510128179043524</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.369210747399927</v>
@@ -17043,7 +16935,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.510980513445471</v>
+        <v>1.515503870089627</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.370247811509425</v>
@@ -17132,7 +17024,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.517151448192882</v>
+        <v>1.518924745642886</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.46031309221336</v>
@@ -17221,7 +17113,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.531482512461041</v>
+        <v>1.536552688347864</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.440392012474978</v>
@@ -17507,7 +17399,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.599159396617643</v>
+        <v>1.558578068963328</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.815517384652774</v>
@@ -17596,7 +17488,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.597453738076011</v>
+        <v>1.554747377037837</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.831854777506815</v>
@@ -17685,7 +17577,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.589316574883871</v>
+        <v>1.542284019896161</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.630502473756262</v>
@@ -17774,7 +17666,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575900335091974</v>
+        <v>1.530246000603424</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.788292741413795</v>
@@ -17863,7 +17755,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.585181980518788</v>
+        <v>1.540519265477794</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.651589624490806</v>
@@ -17952,7 +17844,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.628489930080367</v>
+        <v>1.578318373414961</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.385204000540961</v>
@@ -18041,7 +17933,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.63745538612606</v>
+        <v>1.585003408262579</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.253553163879528</v>
@@ -18130,7 +18022,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646644681195337</v>
+        <v>1.597366070718679</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.392005650045182</v>
@@ -18219,7 +18111,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.639212014541361</v>
+        <v>1.59090435998904</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.175907596802501</v>
@@ -18308,7 +18200,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.649901878188355</v>
+        <v>1.596899135996532</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.340640613647869</v>
@@ -18397,7 +18289,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.643379175556955</v>
+        <v>1.595122727955306</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.020303535327394</v>
@@ -18486,7 +18378,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.650483800615409</v>
+        <v>1.593791975143938</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.166627291149281</v>
@@ -18575,7 +18467,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.653083870759426</v>
+        <v>1.597233441983534</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.175214173864301</v>
@@ -18664,7 +18556,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.65353192990267</v>
+        <v>1.598710107678081</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.228099395212349</v>
@@ -18753,7 +18645,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.643138183962918</v>
+        <v>1.591951613607379</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.071703307780628</v>
@@ -18842,7 +18734,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.641815145992386</v>
+        <v>1.5934785023914</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.843877208287577</v>
@@ -18931,7 +18823,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.64665153565548</v>
+        <v>1.60076107228649</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.849400432899154</v>
@@ -19020,7 +18912,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.655606932762123</v>
+        <v>1.607120940449275</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.904152602377869</v>
@@ -19109,7 +19001,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.673992529138406</v>
+        <v>1.618258216518921</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.215707689149204</v>
@@ -19198,7 +19090,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.685626211185561</v>
+        <v>1.628068439045021</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.690064498610772</v>
@@ -19287,7 +19179,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.689440412246251</v>
+        <v>1.617952627264027</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.499018637270216</v>
@@ -19376,7 +19268,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.683420219762166</v>
+        <v>1.616301635641799</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.729059363756469</v>
@@ -19465,7 +19357,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.675431785518116</v>
+        <v>1.607754539923265</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.643940695158936</v>
@@ -19554,7 +19446,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.666560309245965</v>
+        <v>1.602134074988701</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.614998152005269</v>
@@ -19643,7 +19535,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657098953043124</v>
+        <v>1.59985873323536</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.954037652550033</v>
@@ -19732,7 +19624,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.653323672633525</v>
+        <v>1.592360382850174</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.135441641070565</v>
@@ -19821,7 +19713,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.652980288172842</v>
+        <v>1.588028367389421</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.947370869063573</v>
@@ -19910,7 +19802,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.644818697475937</v>
+        <v>1.581316248919261</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.388747308636654</v>
@@ -19999,7 +19891,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.643244720026589</v>
+        <v>1.58388345285951</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.060006146506188</v>
@@ -20088,7 +19980,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.637018251348285</v>
+        <v>1.573113723193596</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.415578110526151</v>
@@ -20177,7 +20069,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.617722162366983</v>
+        <v>1.555577178886931</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.152351581537239</v>
@@ -20266,7 +20158,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.627435202387092</v>
+        <v>1.562783247946761</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.864792694802789</v>
@@ -20355,7 +20247,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.621925408361288</v>
+        <v>1.558939485205016</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.33963229093959</v>
@@ -20444,7 +20336,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.610540445411963</v>
+        <v>1.540444055782185</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.382128262098529</v>
@@ -20533,7 +20425,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603036057434722</v>
+        <v>1.529227759128805</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.500913096159956</v>
@@ -20622,7 +20514,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.587188274298398</v>
+        <v>1.524497148478967</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.436815676949959</v>
@@ -20711,7 +20603,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.576945193716641</v>
+        <v>1.509877595012137</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.367533574238902</v>
@@ -20800,7 +20692,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579085896290065</v>
+        <v>1.515934636827112</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.002131535197422</v>
@@ -20889,7 +20781,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.57796898373875</v>
+        <v>1.508033414080139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.077231019755045</v>
@@ -20978,7 +20870,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.588407631728825</v>
+        <v>1.519031937891991</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.904441426424826</v>
@@ -21067,7 +20959,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590522789906079</v>
+        <v>1.518528956646337</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.029847891288923</v>
@@ -21156,7 +21048,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.582671584138459</v>
+        <v>1.511324968956161</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.230192636433845</v>
@@ -21245,7 +21137,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.589016840409678</v>
+        <v>1.516012766597842</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.815210453140724</v>
@@ -21334,7 +21226,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.585663469827339</v>
+        <v>1.511953201140012</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.790603305839487</v>
@@ -21423,7 +21315,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.594258177934434</v>
+        <v>1.524449235532033</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.27616217684223</v>
@@ -21512,7 +21404,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.604947716413156</v>
+        <v>1.530383437777459</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.952060069235465</v>
@@ -21601,7 +21493,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.600540520501488</v>
+        <v>1.523996011059598</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.43828763940091</v>
@@ -21690,7 +21582,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600336189745519</v>
+        <v>1.526242468542572</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.816048257062171</v>
@@ -21779,7 +21671,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.564175947161311</v>
+        <v>1.509615308242774</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.575909749697374</v>
@@ -21868,7 +21760,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.557092880873843</v>
+        <v>1.510182760653464</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.546662460139483</v>
@@ -21957,7 +21849,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.565493215032432</v>
+        <v>1.51468284300239</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.713000731837214</v>
@@ -22046,7 +21938,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582095609070009</v>
+        <v>1.536265398929228</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.669431419509789</v>
@@ -22135,7 +22027,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.594917383941214</v>
+        <v>1.548864411733048</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.374257388430284</v>
@@ -22224,7 +22116,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.59848617411615</v>
+        <v>1.558059025670456</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.612701081755042</v>
@@ -22313,7 +22205,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.592324005883466</v>
+        <v>1.546599217519549</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.710200549766978</v>
@@ -22402,7 +22294,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594076083957652</v>
+        <v>1.556932206702621</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.801612871842732</v>
@@ -22491,7 +22383,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.603606051432656</v>
+        <v>1.571734721147409</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.836162185683245</v>
@@ -22580,7 +22472,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.610225279366129</v>
+        <v>1.576784865474435</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.753857781763459</v>
@@ -22669,7 +22561,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.617466135402991</v>
+        <v>1.568208499840682</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.692937267548518</v>
@@ -22758,7 +22650,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.60218795834246</v>
+        <v>1.550509409585707</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.887272892732685</v>
@@ -22847,7 +22739,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.595550632473066</v>
+        <v>1.545990539174884</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.926861521762859</v>
@@ -23133,7 +23025,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.503011874439321</v>
+        <v>1.472786683464829</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.737029262001996</v>
@@ -23222,7 +23114,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.508688990786565</v>
+        <v>1.476770893758342</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.767221603723492</v>
@@ -23311,7 +23203,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.512448316493184</v>
+        <v>1.479075287694924</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.662961835581163</v>
@@ -23400,7 +23292,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.508774843183229</v>
+        <v>1.476824672478553</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.496062808767124</v>
@@ -23489,7 +23381,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.533960471224262</v>
+        <v>1.496662992255358</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.944330333547374</v>
@@ -23578,7 +23470,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.560085058518968</v>
+        <v>1.519176959656283</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.16294683481615</v>
@@ -23667,7 +23559,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.569758362108573</v>
+        <v>1.525214751397382</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.152270577695175</v>
@@ -23756,7 +23648,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558680329658212</v>
+        <v>1.517055358019058</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.958879296203521</v>
@@ -23845,7 +23737,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.565451003542303</v>
+        <v>1.523189559403223</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.904794902907991</v>
@@ -23934,7 +23826,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.56345054176952</v>
+        <v>1.529453125332436</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.068450738620959</v>
@@ -24023,7 +23915,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.559499927942821</v>
+        <v>1.53237333183439</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.047788462902912</v>
@@ -24112,7 +24004,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.563006881274596</v>
+        <v>1.530648873415582</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.823592285523166</v>
@@ -24201,7 +24093,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.586180990260173</v>
+        <v>1.545370110964955</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.035254163089122</v>
@@ -24290,7 +24182,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.578657303013472</v>
+        <v>1.538776732540329</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.321145624764521</v>
@@ -24379,7 +24271,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.594662124914124</v>
+        <v>1.549846857986629</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.194309522665982</v>
@@ -24468,7 +24360,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.589126692176958</v>
+        <v>1.54039512297382</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.2817106719194</v>
@@ -24557,7 +24449,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.587421900032629</v>
+        <v>1.541347725420483</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.126616760696664</v>
@@ -24646,7 +24538,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.592818745739817</v>
+        <v>1.54272013088404</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.211521081086171</v>
@@ -24735,7 +24627,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.59941908618537</v>
+        <v>1.546605307458639</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.178105144239314</v>
@@ -24824,7 +24716,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.606586292104534</v>
+        <v>1.552781618030754</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.020830737989412</v>
@@ -24913,7 +24805,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.611210673555262</v>
+        <v>1.5484056175209</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.81024180762567</v>
@@ -25002,7 +24894,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.609220484385097</v>
+        <v>1.5407226651904</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.855887674105482</v>
@@ -25091,7 +24983,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.614037089730414</v>
+        <v>1.54576687881646</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.117194321341779</v>
@@ -25180,7 +25072,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.585961149016641</v>
+        <v>1.524719797475761</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.945968440425197</v>
@@ -25269,7 +25161,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.580936780197184</v>
+        <v>1.517187826147899</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.119324394351874</v>
@@ -25358,7 +25250,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.561566453571192</v>
+        <v>1.502874338996138</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.209675188751451</v>
@@ -25447,7 +25339,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.569253952057991</v>
+        <v>1.512355526917976</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.075509134313948</v>
@@ -25536,7 +25428,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565376220854662</v>
+        <v>1.507150787789524</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.757261216560233</v>
@@ -25625,7 +25517,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.563482992721155</v>
+        <v>1.502088843568627</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.265036183971335</v>
@@ -25714,7 +25606,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.546194527203646</v>
+        <v>1.48380269266745</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.256587765771985</v>
@@ -25803,7 +25695,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.551512190210329</v>
+        <v>1.487089252738597</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.699050202437137</v>
@@ -25892,7 +25784,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.553024427080649</v>
+        <v>1.490262671898428</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.094419275888412</v>
@@ -25981,7 +25873,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.534348113007606</v>
+        <v>1.47402155234008</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.126376442698842</v>
@@ -26070,7 +25962,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.503247305035846</v>
+        <v>1.445736100279969</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.991516960631825</v>
@@ -26159,7 +26051,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.482854000892563</v>
+        <v>1.431443756952905</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.893221356478948</v>
@@ -26248,7 +26140,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.476922133675755</v>
+        <v>1.43295217633466</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.806343902891769</v>
@@ -26337,7 +26229,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.466761173657718</v>
+        <v>1.430424077855242</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.950886704476013</v>
@@ -26426,7 +26318,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.462349624207226</v>
+        <v>1.428878208438216</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.951508063806375</v>
@@ -26515,7 +26407,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.476902631815373</v>
+        <v>1.439931697841292</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.843943448633186</v>
@@ -26604,7 +26496,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.487971499921264</v>
+        <v>1.446729946605095</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.720245614951445</v>
@@ -26693,7 +26585,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.504863038739791</v>
+        <v>1.459364546643328</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.733264601950886</v>
@@ -26782,7 +26674,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.494884867539389</v>
+        <v>1.451502962652292</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.868704051751687</v>
@@ -26871,7 +26763,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.505504050654755</v>
+        <v>1.460897214630966</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.794129750787976</v>
@@ -26960,7 +26852,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.506719168853958</v>
+        <v>1.46823217384206</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.778342785142669</v>
@@ -27049,7 +26941,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.514541370271436</v>
+        <v>1.479962191680344</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.86462312660227</v>
@@ -27138,7 +27030,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.526723787994379</v>
+        <v>1.489049597475965</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.723031195468783</v>
@@ -27227,7 +27119,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.534115355416837</v>
+        <v>1.491264541055918</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.501759677747106</v>
@@ -27316,7 +27208,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.547567342318846</v>
+        <v>1.506909947283387</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.722820621625275</v>
@@ -27405,7 +27297,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.554141621240996</v>
+        <v>1.513538969231104</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.899100014865763</v>
@@ -27494,7 +27386,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.572679031576467</v>
+        <v>1.533209318521638</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.89757253724032</v>
@@ -27583,7 +27475,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.558840245359423</v>
+        <v>1.519097365777663</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.883962880044506</v>
@@ -27672,7 +27564,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.566969243875261</v>
+        <v>1.527425193555745</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.908867249210261</v>
@@ -27761,7 +27653,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.573136712799734</v>
+        <v>1.536113730298686</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.631288870473139</v>
@@ -27850,7 +27742,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.559085925175371</v>
+        <v>1.519409351108844</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.833595931540312</v>
@@ -27939,7 +27831,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.555011888821005</v>
+        <v>1.524245001574275</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.990954737287488</v>
@@ -28028,7 +27920,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.546510235088992</v>
+        <v>1.519509194995829</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.019854999077465</v>
@@ -28117,7 +28009,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.545870805943656</v>
+        <v>1.519827106086077</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.083846513011494</v>
@@ -28206,7 +28098,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.547735951329819</v>
+        <v>1.527590132008582</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.130044146303363</v>
@@ -28295,7 +28187,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.571251992384815</v>
+        <v>1.539452355266228</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.132693631285974</v>
@@ -28384,7 +28276,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.561925848608582</v>
+        <v>1.533394584214498</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.095679497920519</v>
@@ -28473,7 +28365,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.564157015565645</v>
+        <v>1.53918720430105</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.172871054484783</v>
@@ -28759,7 +28651,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.491938523522287</v>
+        <v>1.493499831430079</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.856061425296805</v>
@@ -28848,7 +28740,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.502425164745229</v>
+        <v>1.503588441472338</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.852894274984031</v>
@@ -28937,7 +28829,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.584834353006605</v>
+        <v>1.566115780712997</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.87861994831795</v>
@@ -29026,7 +28918,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.621710641942221</v>
+        <v>1.615061965535371</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.805006022759535</v>
@@ -29115,7 +29007,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.610493368850969</v>
+        <v>1.604953345611495</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.826130772145998</v>
@@ -29204,7 +29096,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.630097275447196</v>
+        <v>1.624163379994614</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.596035553290534</v>
@@ -29293,7 +29185,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.65621537619807</v>
+        <v>1.645621575255622</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.631050821254073</v>
@@ -29382,7 +29274,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.655480382911931</v>
+        <v>1.643793907017948</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.654351667107815</v>
@@ -29471,7 +29363,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.655336719598115</v>
+        <v>1.639340273144108</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.769506850670512</v>
@@ -29560,7 +29452,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.591296874305624</v>
+        <v>1.580153301663045</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.509443551536679</v>
@@ -29649,7 +29541,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592297992539119</v>
+        <v>1.581383885254926</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.5015787940794</v>
@@ -29738,7 +29630,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.592364201707767</v>
+        <v>1.578743620805753</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.453039134434406</v>
@@ -29827,7 +29719,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.585872646464443</v>
+        <v>1.577587732213315</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.476205542565132</v>
@@ -29916,7 +29808,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.582814062158161</v>
+        <v>1.568075033240021</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.529134612084772</v>
@@ -30005,7 +29897,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.606610278945482</v>
+        <v>1.588655547451898</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.141997967055789</v>
@@ -30094,7 +29986,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608264729823212</v>
+        <v>1.592581856247982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.49502608331553</v>
@@ -30183,7 +30075,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.599573546271584</v>
+        <v>1.580889855641346</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.496418251153305</v>
@@ -30272,7 +30164,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602595046689157</v>
+        <v>1.58340896567601</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.401662298188973</v>
@@ -30361,7 +30253,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.618317477666273</v>
+        <v>1.597752894175079</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.537767811802758</v>
@@ -30450,7 +30342,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.639608651770031</v>
+        <v>1.61316571850379</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.411373283233524</v>
@@ -30539,7 +30431,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.640120029866967</v>
+        <v>1.611646631459459</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.523900376575926</v>
@@ -30628,7 +30520,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.648926832259427</v>
+        <v>1.612776423012285</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.478556556676997</v>
@@ -30717,7 +30609,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.648147565781093</v>
+        <v>1.607922528426463</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.467743637170535</v>
@@ -30806,7 +30698,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.653066261188348</v>
+        <v>1.609271517586224</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.407785906213865</v>
@@ -30895,7 +30787,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.71277966548754</v>
+        <v>1.665748572059372</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.690082440715075</v>
@@ -30984,7 +30876,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.714456850368517</v>
+        <v>1.670321005917727</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.100822967527623</v>
@@ -31073,7 +30965,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708377352097448</v>
+        <v>1.661014258769465</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.2825012516764</v>
@@ -31162,7 +31054,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.715078719766308</v>
+        <v>1.663738194145425</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.586287501195629</v>
@@ -31251,7 +31143,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.718194639319151</v>
+        <v>1.672387321186694</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.560989031574589</v>
@@ -31340,7 +31232,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709313129381449</v>
+        <v>1.663695250805813</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.554133102152171</v>
@@ -31429,7 +31321,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.696500166437966</v>
+        <v>1.653465218425733</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.133204413138078</v>
@@ -31518,7 +31410,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.705376554607138</v>
+        <v>1.663666671874208</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.901188195529839</v>
@@ -31607,7 +31499,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.709625999857207</v>
+        <v>1.667554373938628</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.2180661061588</v>
@@ -31696,7 +31588,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.695154618799963</v>
+        <v>1.650395251321007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.152600294055639</v>
@@ -31785,7 +31677,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.699176490762074</v>
+        <v>1.652245089459099</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.288268056510503</v>
@@ -31874,7 +31766,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.691573719755207</v>
+        <v>1.654531701264238</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.028728906232749</v>
@@ -31963,7 +31855,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.681299215927735</v>
+        <v>1.645898355962278</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.101660541545814</v>
@@ -32052,7 +31944,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684518817819546</v>
+        <v>1.65212335633501</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.136667630235064</v>
@@ -32141,7 +32033,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.68341186624427</v>
+        <v>1.653270611261245</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.206581245082108</v>
@@ -32230,7 +32122,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.695225368544134</v>
+        <v>1.668561475656202</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.050575191873768</v>
@@ -32319,7 +32211,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.698122261952669</v>
+        <v>1.668794913124909</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.194214160780643</v>
@@ -32408,7 +32300,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.69057387979349</v>
+        <v>1.666137261300706</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.15411701260716</v>
@@ -32497,7 +32389,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.686623489668886</v>
+        <v>1.667587342283709</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.053988433722889</v>
@@ -32586,7 +32478,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.685910438218049</v>
+        <v>1.669456508050215</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.287342353982485</v>
@@ -32675,7 +32567,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.699180144479453</v>
+        <v>1.67970771566103</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.632375887074325</v>
@@ -32764,7 +32656,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.700433290800041</v>
+        <v>1.680815127015546</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.207720022580397</v>
@@ -32853,7 +32745,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.70724399362175</v>
+        <v>1.681744470831954</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.421282098582485</v>
@@ -32942,7 +32834,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.719382360482242</v>
+        <v>1.689926529582735</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.355391874186753</v>
@@ -33031,7 +32923,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.694545173198751</v>
+        <v>1.671544368498651</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.225928172134468</v>
@@ -33120,7 +33012,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.671771947992051</v>
+        <v>1.657935165245559</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.043499644440228</v>
@@ -33209,7 +33101,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.670829736539376</v>
+        <v>1.657168805654561</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.074570872106027</v>
@@ -33298,7 +33190,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.66706182469972</v>
+        <v>1.656619582534394</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.083109372395068</v>
@@ -33387,7 +33279,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.528610635056633</v>
+        <v>1.532620179624641</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.86601996335727</v>
@@ -33476,7 +33368,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.38163086967979</v>
+        <v>1.392061037910038</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.696577251623281</v>
@@ -33565,7 +33457,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.358444897183344</v>
+        <v>1.370138289562083</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.688919932972174</v>
@@ -33654,7 +33546,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.357785804656785</v>
+        <v>1.368105593537576</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.691029047798312</v>
@@ -33743,7 +33635,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.332741841036858</v>
+        <v>1.345892088572624</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.696510252258991</v>
@@ -33832,7 +33724,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.324946711621005</v>
+        <v>1.336462773139619</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.712955442539899</v>
@@ -33921,7 +33813,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.326262142213439</v>
+        <v>1.336724665812266</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.722698121478778</v>
@@ -34010,7 +33902,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.325245015840957</v>
+        <v>1.334936583682385</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.726719476907984</v>
@@ -34099,7 +33991,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.330158329069135</v>
+        <v>1.339277058099514</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.732043754143805</v>
@@ -34385,7 +34277,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.284986878569813</v>
+        <v>1.261074860924199</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.3277671639154</v>
@@ -34474,7 +34366,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.269707415327286</v>
+        <v>1.247498552975727</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.197474049284154</v>
@@ -34563,7 +34455,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.292801906155723</v>
+        <v>1.273641425665314</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.599488087550955</v>
@@ -34652,7 +34544,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.29640716973366</v>
+        <v>1.279686020261454</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.466001479659758</v>
@@ -34741,7 +34633,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.323029316499104</v>
+        <v>1.308790464660874</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.540959714893672</v>
@@ -34830,7 +34722,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.332376274925514</v>
+        <v>1.317606948423348</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.248707399772341</v>
@@ -34919,7 +34811,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.360596790148644</v>
+        <v>1.338416518031134</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.46489880055927</v>
@@ -35008,7 +34900,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.36529729965448</v>
+        <v>1.341951397469038</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.690505956888288</v>
@@ -35097,7 +34989,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.363377379886787</v>
+        <v>1.341266772469784</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.724692563327553</v>
@@ -35186,7 +35078,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.36910944702965</v>
+        <v>1.348887264551579</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.531494013866811</v>
@@ -35275,7 +35167,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.387695391813935</v>
+        <v>1.362811084505678</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.407197215288415</v>
@@ -35364,7 +35256,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.392585019137278</v>
+        <v>1.364301256344078</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.334390724048353</v>
@@ -35453,7 +35345,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.407929590346827</v>
+        <v>1.376573264755907</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.311308433407778</v>
@@ -35542,7 +35434,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.392847061263017</v>
+        <v>1.362006511228692</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.410455758000401</v>
@@ -35631,7 +35523,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.418881154524596</v>
+        <v>1.388283755792519</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.331238424288381</v>
@@ -35720,7 +35612,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.42940460981182</v>
+        <v>1.400061438378959</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.370502508434581</v>
@@ -35809,7 +35701,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.440938008332701</v>
+        <v>1.40546468179071</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.421545725991316</v>
@@ -35898,7 +35790,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.466223214964199</v>
+        <v>1.427814790415173</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.455988465207565</v>
@@ -35987,7 +35879,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.477621770136258</v>
+        <v>1.438860677599212</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.340561779787464</v>
@@ -36076,7 +35968,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.493684791485629</v>
+        <v>1.450918557902405</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.30835882772555</v>
@@ -36165,7 +36057,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.519532707331615</v>
+        <v>1.470141488524825</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.46092040802754</v>
@@ -36254,7 +36146,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.52080472883318</v>
+        <v>1.482789683815118</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.257763153958658</v>
@@ -36343,7 +36235,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.523075914171805</v>
+        <v>1.488520435068863</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.421578971754106</v>
@@ -36432,7 +36324,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.510553937478733</v>
+        <v>1.473344751413111</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.358266264829831</v>
@@ -36521,7 +36413,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.502042488077261</v>
+        <v>1.466545099394597</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.399750912446061</v>
@@ -36610,7 +36502,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.460913735638532</v>
+        <v>1.428491880911146</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.457118015630539</v>
@@ -36699,7 +36591,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.459861932341064</v>
+        <v>1.428034852655148</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.495939265023606</v>
@@ -36788,7 +36680,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.470023662964529</v>
+        <v>1.430255430038799</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.187753078310252</v>
@@ -36877,7 +36769,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.461283380969296</v>
+        <v>1.427937255631811</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.366664408552288</v>
@@ -36966,7 +36858,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.412559673402928</v>
+        <v>1.381542592948186</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.507315174563083</v>
@@ -37055,7 +36947,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.406102700090456</v>
+        <v>1.372474480413862</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.353164766363831</v>
@@ -37144,7 +37036,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.408432355987413</v>
+        <v>1.378262832190772</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.429953690868687</v>
@@ -37233,7 +37125,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.404535295793117</v>
+        <v>1.375996228405327</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.476587434797659</v>
@@ -37322,7 +37214,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.388650300374437</v>
+        <v>1.357337150585693</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.435950288390972</v>
@@ -37411,7 +37303,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.388718404258891</v>
+        <v>1.358506662328818</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.467103214739164</v>
@@ -37500,7 +37392,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.383108027833838</v>
+        <v>1.354880797687847</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.386235151694338</v>
@@ -37589,7 +37481,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.370358221918184</v>
+        <v>1.342435277695993</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.412097700014558</v>
@@ -37678,7 +37570,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.366585888812481</v>
+        <v>1.339616915205226</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.507115960812766</v>
@@ -37767,7 +37659,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.358395594985325</v>
+        <v>1.330621391105641</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.354554351026188</v>
@@ -37856,7 +37748,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.375192661619963</v>
+        <v>1.341909770199339</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.270533662997348</v>
@@ -37945,7 +37837,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.381562340983443</v>
+        <v>1.348388661983406</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.215096323170934</v>
@@ -38034,7 +37926,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.38445074277578</v>
+        <v>1.35461937257949</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.344383453372528</v>
@@ -38123,7 +38015,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.396569216680833</v>
+        <v>1.36330216202935</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.188641382127253</v>
@@ -38212,7 +38104,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.390999481701123</v>
+        <v>1.351968258370289</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.180939390285829</v>
@@ -38301,7 +38193,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.417726583067579</v>
+        <v>1.383061648829707</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.29437913406124</v>
@@ -38390,7 +38282,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.461719790457181</v>
+        <v>1.423615853187386</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.238516786328362</v>
@@ -38479,7 +38371,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.464534253063518</v>
+        <v>1.422039914140907</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.294709764859677</v>
@@ -38568,7 +38460,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454216422209651</v>
+        <v>1.410334616710362</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.445401821921731</v>
@@ -38657,7 +38549,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.450997165445998</v>
+        <v>1.414384125677423</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.443105582996474</v>
@@ -38746,7 +38638,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.438814668694482</v>
+        <v>1.404629137952733</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.29360671173191</v>
@@ -38835,7 +38727,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.409871350144255</v>
+        <v>1.381649416014363</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.30119582166769</v>
@@ -38924,7 +38816,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.418465209535089</v>
+        <v>1.390414967871089</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.398669449812139</v>
@@ -39013,7 +38905,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.441877957563803</v>
+        <v>1.415072127102459</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.237190593468369</v>
@@ -39102,7 +38994,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.429043650070489</v>
+        <v>1.399079405179399</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.43522956694716</v>
@@ -39191,7 +39083,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.421142633896826</v>
+        <v>1.397406225391557</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.593598933259891</v>
@@ -39280,7 +39172,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.405243423948555</v>
+        <v>1.389647573720274</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.620575446264588</v>
@@ -39369,7 +39261,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.397158998341247</v>
+        <v>1.382206422712096</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.525673410258038</v>
@@ -39458,7 +39350,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.392084354279322</v>
+        <v>1.379598673386709</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.562880218402058</v>
@@ -39547,7 +39439,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.437343093479233</v>
+        <v>1.424833316848436</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.422898381104125</v>
@@ -39636,7 +39528,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.419936337933392</v>
+        <v>1.404156781139441</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.540569826845529</v>
@@ -39725,7 +39617,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.404949371736931</v>
+        <v>1.389091776886543</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.511460087812403</v>
